--- a/TP 2/EJ 8/EJ 8.xlsx
+++ b/TP 2/EJ 8/EJ 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_2\OneDrive\Documentos\GitHub\Recuperacion de la Informacion\Recuperacion-de-la-Informacion\TP 2\EJ 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366E442-49B3-43E4-A98E-4AAC2D3E9D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6D5F2-A436-4C2B-A272-207759322106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>DOCUMENTO</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Se puede ver una precision similar a la no interpolada</t>
+  </si>
+  <si>
+    <t>P@11</t>
   </si>
 </sst>
 </file>
@@ -154,11 +157,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,8 +2517,8 @@
         <v>6</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM(G10:G24)/E24</f>
-        <v>0.44413619713619706</v>
+        <f>SUM(G10,G13,G14,G19,G23)/11</f>
+        <v>0.25974025974025977</v>
       </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
@@ -2578,8 +2581,11 @@
         <v>9</v>
       </c>
       <c r="L13" s="5">
-        <f>G24</f>
-        <v>0.33333333333333331</v>
+        <f>G20</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
@@ -2645,15 +2651,15 @@
         <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
     <row r="18" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
@@ -2670,15 +2676,15 @@
         <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
     </row>
     <row r="19" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
@@ -2695,15 +2701,15 @@
         <f>4/11</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
     </row>
     <row r="20" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
@@ -2720,15 +2726,15 @@
         <f t="shared" ref="H20:H22" si="2">4/11</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
@@ -2795,47 +2801,47 @@
       </c>
     </row>
     <row r="31" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G33" s="6"/>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="6"/>
-      <c r="V33" s="9"/>
+      <c r="V33" s="7"/>
     </row>
     <row r="41" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
@@ -2935,36 +2941,31 @@
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H56" s="8" t="s">
+      <c r="H56" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
